--- a/src/test/resources/assignment_testdata.xlsx
+++ b/src/test/resources/assignment_testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uvaraj/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uvaraj/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{51FB48BD-CF87-C342-A37E-4A492FE3E46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96048040-9FBE-9149-8FE2-4698EE67F124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="3900" yWindow="2180" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_assignment" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>postman operation</t>
   </si>
@@ -194,12 +194,39 @@
   </si>
   <si>
     <t>testng</t>
+  </si>
+  <si>
+    <t>sep12-Apidagger-SDET-102</t>
+  </si>
+  <si>
+    <t>selenium actions</t>
+  </si>
+  <si>
+    <t>Assignment in click action</t>
+  </si>
+  <si>
+    <t>2023-10-20T22:02:28.312</t>
+  </si>
+  <si>
+    <t>attach1</t>
+  </si>
+  <si>
+    <t>attach2</t>
+  </si>
+  <si>
+    <t>attach3</t>
+  </si>
+  <si>
+    <t>attach4</t>
+  </si>
+  <si>
+    <t>attach5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -684,13 +711,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1046,11 +1072,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1106,7 +1132,7 @@
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
@@ -1129,10 +1155,10 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>45117</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>45180</v>
       </c>
       <c r="G3" s="1"/>
@@ -1367,6 +1393,41 @@
         <v>55</v>
       </c>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/test/resources/assignment_testdata.xlsx
+++ b/src/test/resources/assignment_testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uvaraj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uvaraj/git/LMS_Cucumber_Crunchers/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96048040-9FBE-9149-8FE2-4698EE67F124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F36F253-ED64-FE43-ACEF-3D08988D1951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2180" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>postman operation</t>
   </si>
@@ -34,12 +34,6 @@
     <t>Filepath3</t>
   </si>
   <si>
-    <t>Filepath4</t>
-  </si>
-  <si>
-    <t>Filepath5</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Assignment due date</t>
   </si>
   <si>
@@ -67,12 +61,6 @@
     <t>Assignmentfile3</t>
   </si>
   <si>
-    <t>Assignmentfile4</t>
-  </si>
-  <si>
-    <t>Assignmentfile5</t>
-  </si>
-  <si>
     <t>sep12-Googlecrunchers-SDET-001</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>file</t>
   </si>
   <si>
-    <t>File</t>
-  </si>
-  <si>
     <t>Postman operation</t>
   </si>
   <si>
@@ -133,12 +118,6 @@
     <t>path3</t>
   </si>
   <si>
-    <t>path4</t>
-  </si>
-  <si>
-    <t>path5</t>
-  </si>
-  <si>
     <t>file1</t>
   </si>
   <si>
@@ -148,12 +127,6 @@
     <t>file3</t>
   </si>
   <si>
-    <t>file4</t>
-  </si>
-  <si>
-    <t>File5</t>
-  </si>
-  <si>
     <t>sql1</t>
   </si>
   <si>
@@ -163,12 +136,6 @@
     <t>sql3</t>
   </si>
   <si>
-    <t>sql4</t>
-  </si>
-  <si>
-    <t>sql5</t>
-  </si>
-  <si>
     <t>assignment in view</t>
   </si>
   <si>
@@ -184,12 +151,6 @@
     <t>assign3</t>
   </si>
   <si>
-    <t>assign4</t>
-  </si>
-  <si>
-    <t>assign5</t>
-  </si>
-  <si>
     <t>schemas</t>
   </si>
   <si>
@@ -215,12 +176,6 @@
   </si>
   <si>
     <t>attach3</t>
-  </si>
-  <si>
-    <t>attach4</t>
-  </si>
-  <si>
-    <t>attach5</t>
   </si>
 </sst>
 </file>
@@ -1073,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1089,48 +1044,40 @@
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1139,21 +1086,21 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3">
         <v>45117</v>
@@ -1163,24 +1110,24 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1</v>
@@ -1191,63 +1138,51 @@
       <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -1258,174 +1193,138 @@
       <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
